--- a/Aide/wwwroot/AdvisingMaterial/CS_Plans/CS_2017-2018.xlsx
+++ b/Aide/wwwroot/AdvisingMaterial/CS_Plans/CS_2017-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Dropbox\Advising\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ibraheem\GP\Study Plans\Advising Material\CS_Plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB42C7D-8FC6-4893-B08B-414FE59278AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688E50B2-C92A-4EB8-B161-FA513E9A3FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS-Master-E" sheetId="26" r:id="rId1"/>
@@ -35,7 +35,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -5969,6 +5973,74 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306916</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>275167</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2794000" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A8CF12-9C90-B671-D922-41E003EEEACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12149666" y="275167"/>
+          <a:ext cx="2794000" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>00000 name 20201</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9296,8 +9368,8 @@
   </sheetPr>
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13372,7 +13444,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
